--- a/testdata/ineco/valid_regular.xlsx
+++ b/testdata/ineco/valid_regular.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t xml:space="preserve">ՀԱՇՎԻ ՔԱՂՎԱԾՔ N</t>
   </si>
@@ -91,44 +91,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="GHEA Grapalat"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2050</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="GHEA Grapalat"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">20502050</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="GHEA Grapalat"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="GHEA Grapalat"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">2050</t>
-    </r>
+    <t xml:space="preserve">205020502050-2050</t>
   </si>
   <si>
     <t xml:space="preserve">Հարցերի դեպքում` (010) 510 510</t>
@@ -400,10 +363,10 @@
     <t xml:space="preserve">03/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">119,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-100,000.00</t>
+    <t xml:space="preserve">4,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4,000.00</t>
   </si>
   <si>
     <t xml:space="preserve">+1.00</t>
@@ -421,7 +384,10 @@
     <t xml:space="preserve">07/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">4,000.00</t>
+    <t xml:space="preserve">78,000.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+78,000.10</t>
   </si>
   <si>
     <t xml:space="preserve">Փոխանցում իմ հաշիվների միջև, Account replenishment, InecoOnline, 07/06/2023 11:38:58</t>
@@ -486,7 +452,7 @@
     <numFmt numFmtId="172" formatCode="0.00%"/>
     <numFmt numFmtId="173" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -597,12 +563,6 @@
       <name val="GHEA Grapalat"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="GHEA Grapalat"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
@@ -980,15 +940,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -996,15 +956,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1016,39 +976,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="3" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="4" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="4" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="6" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="3" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="4" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="4" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="6" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="7" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="7" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1072,11 +1032,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="2" borderId="10" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="23" fillId="2" borderId="10" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1088,79 +1048,79 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="23" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="24" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="171" fontId="24" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="24" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="25" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="25" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="25" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="25" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="25" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="26" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="26" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="28" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="28" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="28" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="29" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="30" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="30" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="29" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="31" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="32" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="31" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1168,7 +1128,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1188,15 +1148,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="2" borderId="13" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="2" borderId="13" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1303,9 +1263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28440</xdr:colOff>
+      <xdr:colOff>28080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>232920</xdr:rowOff>
+      <xdr:rowOff>232560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1319,7 +1279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1438920" cy="442440"/>
+          <a:ext cx="1438560" cy="442080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1342,7 +1302,7 @@
   <dimension ref="A2:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2175,8 +2135,8 @@
         <v>11</v>
       </c>
       <c r="E23" s="54"/>
-      <c r="F23" s="55" t="n">
-        <v>78000.1</v>
+      <c r="F23" s="55" t="s">
+        <v>56</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="56" t="s">
@@ -2192,7 +2152,7 @@
       <c r="P23" s="57"/>
       <c r="Q23" s="57"/>
       <c r="R23" s="58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S23" s="58"/>
       <c r="T23" s="58"/>
@@ -2221,7 +2181,7 @@
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
       <c r="L24" s="57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M24" s="57"/>
       <c r="N24" s="57"/>
@@ -2229,7 +2189,7 @@
       <c r="P24" s="57"/>
       <c r="Q24" s="57"/>
       <c r="R24" s="58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S24" s="58"/>
       <c r="T24" s="58"/>
@@ -2272,7 +2232,7 @@
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -2303,7 +2263,7 @@
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="61"/>
       <c r="C27" s="61"/>
@@ -2312,12 +2272,12 @@
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
       <c r="H27" s="62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
       <c r="K27" s="62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L27" s="62"/>
       <c r="M27" s="60"/>
@@ -2338,7 +2298,7 @@
     </row>
     <row r="28" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="63"/>
@@ -2347,7 +2307,7 @@
       <c r="F28" s="63"/>
       <c r="G28" s="63"/>
       <c r="H28" s="64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I28" s="64"/>
       <c r="J28" s="64"/>
@@ -2373,7 +2333,7 @@
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
@@ -2385,7 +2345,7 @@
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
       <c r="K29" s="64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L29" s="64"/>
       <c r="M29" s="60"/>
@@ -2406,7 +2366,7 @@
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
@@ -2418,14 +2378,14 @@
       <c r="I30" s="64"/>
       <c r="J30" s="64"/>
       <c r="K30" s="64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L30" s="64"/>
       <c r="AF30" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="67"/>
       <c r="C32" s="67"/>
@@ -2460,7 +2420,7 @@
     </row>
     <row r="34" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="68"/>
       <c r="C34" s="68"/>
@@ -2495,7 +2455,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="69"/>
       <c r="C35" s="69"/>
